--- a/bd/lista_dropdown.xlsx
+++ b/bd/lista_dropdown.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Relação tabela - coluna" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>tabela</t>
   </si>
@@ -85,6 +85,138 @@
   </si>
   <si>
     <t>indexador</t>
+  </si>
+  <si>
+    <t>CDI, SELIC, PRÉ e IPCA</t>
+  </si>
+  <si>
+    <t>investimento, conta, especie</t>
+  </si>
+  <si>
+    <t>Diária</t>
+  </si>
+  <si>
+    <t>Diária, D+1, D+2 e No vencimento</t>
+  </si>
+  <si>
+    <t>sigla</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>moeda</t>
+  </si>
+  <si>
+    <t>cédula</t>
+  </si>
+  <si>
+    <t>corrente</t>
+  </si>
+  <si>
+    <t>poupança</t>
+  </si>
+  <si>
+    <t>cofrinho</t>
+  </si>
+  <si>
+    <t>caixinha</t>
+  </si>
+  <si>
+    <t>Emergência</t>
+  </si>
+  <si>
+    <t>Oportunidade</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Pessoal</t>
+  </si>
+  <si>
+    <t>Reenvestir</t>
+  </si>
+  <si>
+    <t>Imóvel</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>G1-100K</t>
+  </si>
+  <si>
+    <t>G2-100K</t>
+  </si>
+  <si>
+    <t>G3-100K</t>
+  </si>
+  <si>
+    <t>G4-100K</t>
+  </si>
+  <si>
+    <t>Financeira</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Corretora</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Atingida</t>
+  </si>
+  <si>
+    <t>Tesouro Direto</t>
+  </si>
+  <si>
+    <t>Fundo de Investimento Imobiliário</t>
+  </si>
+  <si>
+    <t>Certificado de Depósito Bancario</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>D+1</t>
+  </si>
+  <si>
+    <t>D+2</t>
+  </si>
+  <si>
+    <t>No vencimento</t>
+  </si>
+  <si>
+    <t>IPCA</t>
+  </si>
+  <si>
+    <t>PRÉ</t>
+  </si>
+  <si>
+    <t>SELIC</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Documentos emitidos pelo banco central com valores predeterminados, que funcionam como meio de pagamento</t>
+  </si>
+  <si>
+    <t>Peças metálicas com valores nominais específicos, emitidas pelo poder público para servir como meio de troca</t>
   </si>
 </sst>
 </file>
@@ -429,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -528,6 +660,9 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
@@ -536,6 +671,9 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
@@ -543,6 +681,9 @@
       </c>
       <c r="C10" t="s">
         <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -553,14 +694,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="105" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
